--- a/data/Bolometer_readings_under_the_cone_new_old.xlsx
+++ b/data/Bolometer_readings_under_the_cone_new_old.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLAC\Files\PulseForge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D2F32-2930-4D3C-B273-AB52A8A91D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5371370-4435-7144-A664-F513B872C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56960" yWindow="500" windowWidth="23040" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibrations" sheetId="1" r:id="rId1"/>
-    <sheet name="Beamtime" sheetId="2" r:id="rId2"/>
+    <sheet name="Calibrations_new" sheetId="3" r:id="rId2"/>
+    <sheet name="Beamtime" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t>Single pulse measurements</t>
   </si>
@@ -205,10 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,55 +492,52 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -569,38 +566,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>400</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>400</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>0.76</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>0.61</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>3.6</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
         <f t="shared" ref="H10:H44" si="0">D10*1000000/B10</f>
         <v>1900</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <f>D10/E10</f>
         <v>1.2459016393442623</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>600</v>
       </c>
@@ -622,16 +619,16 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>6060</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <f t="shared" ref="I11:I44" si="1">D11/E11</f>
         <v>1.2625</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>600</v>
       </c>
@@ -653,16 +650,16 @@
       <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>5570</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>1.2834101382488481</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>600</v>
       </c>
@@ -684,16 +681,16 @@
       <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>4946.666666666667</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>600</v>
       </c>
@@ -715,16 +712,16 @@
       <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>4425</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>1.280752532561505</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>600</v>
       </c>
@@ -746,16 +743,16 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>3980</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>1.2855297157622738</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>600</v>
       </c>
@@ -777,16 +774,16 @@
       <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>2564</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>1.2807192807192809</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>650</v>
       </c>
@@ -808,16 +805,16 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>7700</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>1.2790697674418605</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>650</v>
       </c>
@@ -839,16 +836,16 @@
       <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>6940</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>1.273394495412844</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>650</v>
       </c>
@@ -870,16 +867,16 @@
       <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>6126.666666666667</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>1.2746185852981968</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>650</v>
       </c>
@@ -901,16 +898,16 @@
       <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>5480</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>1.2818713450292398</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>650</v>
       </c>
@@ -932,16 +929,16 @@
       <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>4824</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>1.2654774396642183</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>650</v>
       </c>
@@ -963,16 +960,16 @@
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>3082</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>1.272502064409579</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>700</v>
       </c>
@@ -994,16 +991,16 @@
       <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>9466.6666666666661</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>1.2735426008968609</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>700</v>
       </c>
@@ -1025,16 +1022,16 @@
       <c r="G24" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>9460</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>1.2958904109589042</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>700</v>
       </c>
@@ -1056,16 +1053,16 @@
       <c r="G25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>8420</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>1.2854961832061069</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>700</v>
       </c>
@@ -1087,16 +1084,16 @@
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>7373.333333333333</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>1.2815758980301275</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>700</v>
       </c>
@@ -1118,16 +1115,16 @@
       <c r="G27" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>6475</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>1.2783810463968408</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>700</v>
       </c>
@@ -1149,16 +1146,16 @@
       <c r="G28" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>5768</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>1.2840605520926089</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>700</v>
       </c>
@@ -1180,16 +1177,16 @@
       <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>3630</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>1.28632175761871</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>750</v>
       </c>
@@ -1211,16 +1208,16 @@
       <c r="G30" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>1.2790697674418605</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>750</v>
       </c>
@@ -1242,16 +1239,16 @@
       <c r="G31" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>11466.666666666666</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>1.278810408921933</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>750</v>
       </c>
@@ -1273,16 +1270,16 @@
       <c r="G32" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>11450</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>1.2793296089385475</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>750</v>
       </c>
@@ -1304,16 +1301,16 @@
       <c r="G33" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>11360</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>1.2821670428893905</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>750</v>
       </c>
@@ -1335,16 +1332,16 @@
       <c r="G34" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>10625</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>800</v>
       </c>
@@ -1366,16 +1363,16 @@
       <c r="G35" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>10900</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>1.2674418604651163</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>800</v>
       </c>
@@ -1397,16 +1394,16 @@
       <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>1.2815533980582525</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>800</v>
       </c>
@@ -1428,16 +1425,16 @@
       <c r="G37" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>13566.666666666668</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37">
         <f t="shared" si="1"/>
         <v>1.2758620689655173</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>800</v>
       </c>
@@ -1459,16 +1456,16 @@
       <c r="G38" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>13700</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>1.2833723653395788</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>800</v>
       </c>
@@ -1490,16 +1487,16 @@
       <c r="G39" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>13535.353535353535</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39">
         <f t="shared" si="1"/>
         <v>1.2835249042145596</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>799</v>
       </c>
@@ -1521,16 +1518,16 @@
       <c r="G40" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>13520</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40">
         <f t="shared" si="1"/>
         <v>1.2900763358778624</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>738</v>
       </c>
@@ -1552,16 +1549,16 @@
       <c r="G41" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>9660</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41">
         <f t="shared" si="1"/>
         <v>1.2845744680851066</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>720</v>
       </c>
@@ -1583,16 +1580,16 @@
       <c r="G42" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>7946.666666666667</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42">
         <f t="shared" si="1"/>
         <v>1.2831001076426265</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>716</v>
       </c>
@@ -1614,16 +1611,16 @@
       <c r="G43" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>6860</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43">
         <f t="shared" si="1"/>
         <v>1.2810457516339868</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>716</v>
       </c>
@@ -1645,11 +1642,11 @@
       <c r="G44" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>3828</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44">
         <f t="shared" si="1"/>
         <v>1.2854264607118873</v>
       </c>
@@ -1661,26 +1658,1153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63D0C59-5EC6-AA44-B57C-2A690131BC74}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>400</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.76</v>
+      </c>
+      <c r="E2">
+        <v>0.61</v>
+      </c>
+      <c r="F2">
+        <v>3.6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H36" si="0">D2*1000000/B2</f>
+        <v>1900</v>
+      </c>
+      <c r="I2">
+        <f>D2/E2</f>
+        <v>1.2459016393442623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>600</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>4.09</v>
+      </c>
+      <c r="D3">
+        <v>3.03</v>
+      </c>
+      <c r="E3">
+        <v>2.4</v>
+      </c>
+      <c r="F3">
+        <v>13.4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>6060</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I36" si="1">D3/E3</f>
+        <v>1.2625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>600</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>7.4</v>
+      </c>
+      <c r="D4">
+        <v>5.57</v>
+      </c>
+      <c r="E4">
+        <v>4.34</v>
+      </c>
+      <c r="F4">
+        <v>17.2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>5570</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1.2834101382488481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>600</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="C5">
+        <v>9.84</v>
+      </c>
+      <c r="D5">
+        <v>7.42</v>
+      </c>
+      <c r="E5">
+        <v>5.83</v>
+      </c>
+      <c r="F5">
+        <v>18.7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4946.666666666667</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1.2727272727272727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>600</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>11.7</v>
+      </c>
+      <c r="D6">
+        <v>8.85</v>
+      </c>
+      <c r="E6">
+        <v>6.91</v>
+      </c>
+      <c r="F6">
+        <v>19.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4425</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.280752532561505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>2500</v>
+      </c>
+      <c r="C7">
+        <v>13.1</v>
+      </c>
+      <c r="D7">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E7">
+        <v>7.74</v>
+      </c>
+      <c r="F7">
+        <v>19.3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3980</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.2855297157622738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>12.82</v>
+      </c>
+      <c r="E8">
+        <v>10.01</v>
+      </c>
+      <c r="F8">
+        <v>19.3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2564</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.2807192807192809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>650</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>5.13</v>
+      </c>
+      <c r="D9">
+        <v>3.85</v>
+      </c>
+      <c r="E9">
+        <v>3.01</v>
+      </c>
+      <c r="F9">
+        <v>16.8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7700</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.2790697674418605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>650</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>9.17</v>
+      </c>
+      <c r="D10">
+        <v>6.94</v>
+      </c>
+      <c r="E10">
+        <v>5.45</v>
+      </c>
+      <c r="F10">
+        <v>21.3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>6940</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.273394495412844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>650</v>
+      </c>
+      <c r="B11">
+        <v>1500</v>
+      </c>
+      <c r="C11">
+        <v>12.1</v>
+      </c>
+      <c r="D11">
+        <v>9.19</v>
+      </c>
+      <c r="E11">
+        <v>7.21</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>6126.666666666667</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.2746185852981968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>650</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <v>14.3</v>
+      </c>
+      <c r="D12">
+        <v>10.96</v>
+      </c>
+      <c r="E12">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F12">
+        <v>23.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>5480</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.2818713450292398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>650</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13">
+        <v>15.9</v>
+      </c>
+      <c r="D13">
+        <v>12.06</v>
+      </c>
+      <c r="E13">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="F13">
+        <v>23.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>4824</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.2654774396642183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>650</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D14">
+        <v>15.41</v>
+      </c>
+      <c r="E14">
+        <v>12.11</v>
+      </c>
+      <c r="F14">
+        <v>23.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3082</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.272502064409579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>700</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <v>3.81</v>
+      </c>
+      <c r="D15">
+        <v>2.84</v>
+      </c>
+      <c r="E15">
+        <v>2.23</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>9466.6666666666661</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.2735426008968609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>700</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <v>6.32</v>
+      </c>
+      <c r="D16">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E16">
+        <v>3.65</v>
+      </c>
+      <c r="F16">
+        <v>20.7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>9460</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.2958904109589042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>700</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>11.2</v>
+      </c>
+      <c r="D17">
+        <v>8.42</v>
+      </c>
+      <c r="E17">
+        <v>6.55</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>8420</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1.2854961832061069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>700</v>
+      </c>
+      <c r="B18">
+        <v>1500</v>
+      </c>
+      <c r="C18">
+        <v>14.6</v>
+      </c>
+      <c r="D18">
+        <v>11.06</v>
+      </c>
+      <c r="E18">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="F18">
+        <v>27.8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>7373.333333333333</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.2815758980301275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>700</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D19">
+        <v>12.95</v>
+      </c>
+      <c r="E19">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="F19">
+        <v>28.2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>6475</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.2783810463968408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>700</v>
+      </c>
+      <c r="B20">
+        <v>2500</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>14.42</v>
+      </c>
+      <c r="E20">
+        <v>11.23</v>
+      </c>
+      <c r="F20">
+        <v>28.2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>5768</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1.2840605520926089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>700</v>
+      </c>
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="E21">
+        <v>14.11</v>
+      </c>
+      <c r="F21">
+        <v>28.2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>3630</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1.28632175761871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>750</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>2.96</v>
+      </c>
+      <c r="D22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E22">
+        <v>1.72</v>
+      </c>
+      <c r="F22">
+        <v>15.1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1.2790697674418605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>750</v>
+      </c>
+      <c r="B23">
+        <v>300</v>
+      </c>
+      <c r="C23">
+        <v>4.66</v>
+      </c>
+      <c r="D23">
+        <v>3.44</v>
+      </c>
+      <c r="E23">
+        <v>2.69</v>
+      </c>
+      <c r="F23">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>11466.666666666666</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1.278810408921933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+      <c r="C24">
+        <v>6.23</v>
+      </c>
+      <c r="D24">
+        <v>4.58</v>
+      </c>
+      <c r="E24">
+        <v>3.58</v>
+      </c>
+      <c r="F24">
+        <v>22.8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>11450</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1.2793296089385475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>750</v>
+      </c>
+      <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <v>7.67</v>
+      </c>
+      <c r="D25">
+        <v>5.68</v>
+      </c>
+      <c r="E25">
+        <v>4.43</v>
+      </c>
+      <c r="F25">
+        <v>25.1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>11360</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1.2821670428893905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>750</v>
+      </c>
+      <c r="B26">
+        <v>800</v>
+      </c>
+      <c r="C26">
+        <v>11.4</v>
+      </c>
+      <c r="D26">
+        <v>8.5</v>
+      </c>
+      <c r="E26">
+        <v>6.63</v>
+      </c>
+      <c r="F26">
+        <v>29.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>10625</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1.2820512820512822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>800</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>1.42</v>
+      </c>
+      <c r="D27">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.86</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>10900</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1.2674418604651163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>800</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="C28">
+        <v>3.58</v>
+      </c>
+      <c r="D28">
+        <v>2.64</v>
+      </c>
+      <c r="E28">
+        <v>2.06</v>
+      </c>
+      <c r="F28">
+        <v>18.3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1.2815533980582525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>800</v>
+      </c>
+      <c r="B29">
+        <v>300</v>
+      </c>
+      <c r="C29">
+        <v>5.62</v>
+      </c>
+      <c r="D29">
+        <v>4.07</v>
+      </c>
+      <c r="E29">
+        <v>3.19</v>
+      </c>
+      <c r="F29">
+        <v>23.6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>13566.666666666668</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1.2758620689655173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>800</v>
+      </c>
+      <c r="B30">
+        <v>400</v>
+      </c>
+      <c r="C30">
+        <v>7.48</v>
+      </c>
+      <c r="D30">
+        <v>5.48</v>
+      </c>
+      <c r="E30">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F30">
+        <v>27.3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>13700</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1.2833723653395788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>800</v>
+      </c>
+      <c r="B31">
+        <v>495</v>
+      </c>
+      <c r="C31">
+        <v>9.1</v>
+      </c>
+      <c r="D31">
+        <v>6.7</v>
+      </c>
+      <c r="E31">
+        <v>5.22</v>
+      </c>
+      <c r="F31">
+        <v>29.9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>13535.353535353535</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>1.2835249042145596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>799</v>
+      </c>
+      <c r="B32">
+        <v>500</v>
+      </c>
+      <c r="C32">
+        <v>9.15</v>
+      </c>
+      <c r="D32">
+        <v>6.76</v>
+      </c>
+      <c r="E32">
+        <v>5.24</v>
+      </c>
+      <c r="F32">
+        <v>29.9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>13520</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1.2900763358778624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>738</v>
+      </c>
+      <c r="B33">
+        <v>1000</v>
+      </c>
+      <c r="C33">
+        <v>12.8</v>
+      </c>
+      <c r="D33">
+        <v>9.66</v>
+      </c>
+      <c r="E33">
+        <v>7.52</v>
+      </c>
+      <c r="F33">
+        <v>29.9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>9660</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1.2845744680851066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>720</v>
+      </c>
+      <c r="B34">
+        <v>1500</v>
+      </c>
+      <c r="C34">
+        <v>15.7</v>
+      </c>
+      <c r="D34">
+        <v>11.92</v>
+      </c>
+      <c r="E34">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F34">
+        <v>29.8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>7946.666666666667</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>1.2831001076426265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>716</v>
+      </c>
+      <c r="B35">
+        <v>2000</v>
+      </c>
+      <c r="C35">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D35">
+        <v>13.72</v>
+      </c>
+      <c r="E35">
+        <v>10.71</v>
+      </c>
+      <c r="F35">
+        <v>29.8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>6860</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>1.2810457516339868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>716</v>
+      </c>
+      <c r="B36">
+        <v>5000</v>
+      </c>
+      <c r="C36">
+        <v>25.2</v>
+      </c>
+      <c r="D36">
+        <v>19.14</v>
+      </c>
+      <c r="E36">
+        <v>14.89</v>
+      </c>
+      <c r="F36">
+        <v>29.8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>3828</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>1.2854264607118873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504722A9-62E2-405D-AB2A-3E1490BC7F79}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="25.36328125" customWidth="1"/>
-    <col min="6" max="6" width="29.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
-    <col min="9" max="9" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1709,7 +2833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>750</v>
       </c>
@@ -1735,7 +2859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>799</v>
       </c>
@@ -1761,7 +2885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>720</v>
       </c>
@@ -1787,7 +2911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>770</v>
       </c>
@@ -1813,7 +2937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>700</v>
       </c>
@@ -1839,7 +2963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>738</v>
       </c>
@@ -1865,7 +2989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>670</v>
       </c>
@@ -1891,7 +3015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>650</v>
       </c>
@@ -1917,7 +3041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>670</v>
       </c>
@@ -1943,7 +3067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>700</v>
       </c>
@@ -1969,7 +3093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>716</v>
       </c>
@@ -1995,7 +3119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>620</v>
       </c>
@@ -2021,7 +3145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>700</v>
       </c>
@@ -2047,7 +3171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>716</v>
       </c>
@@ -2073,7 +3197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>670</v>
       </c>
@@ -2099,7 +3223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>650</v>
       </c>
@@ -2125,7 +3249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>620</v>
       </c>
@@ -2151,7 +3275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>850</v>
       </c>
@@ -2177,7 +3301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>850</v>
       </c>
@@ -2203,7 +3327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>850</v>
       </c>
@@ -2229,7 +3353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>850</v>
       </c>
@@ -2255,7 +3379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>850</v>
       </c>
@@ -2281,7 +3405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>850</v>
       </c>
@@ -2307,7 +3431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>600</v>
       </c>
@@ -2333,7 +3457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>600</v>
       </c>

--- a/data/Bolometer_readings_under_the_cone_new_old.xlsx
+++ b/data/Bolometer_readings_under_the_cone_new_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5371370-4435-7144-A664-F513B872C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51209FF4-FD0E-E349-9725-AE5D1BC53F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56960" yWindow="500" windowWidth="23040" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56960" yWindow="500" windowWidth="23040" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibrations" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1661,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63D0C59-5EC6-AA44-B57C-2A690131BC74}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2790,7 +2790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504722A9-62E2-405D-AB2A-3E1490BC7F79}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
